--- a/Normalizacion.xlsx
+++ b/Normalizacion.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="166">
   <si>
     <t xml:space="preserve">EJERCICIO 1 </t>
   </si>
@@ -304,14 +304,235 @@
   </si>
   <si>
     <t>NRO_PROD</t>
+  </si>
+  <si>
+    <t>EJ3 MINI</t>
+  </si>
+  <si>
+    <t>Socios = @nro_socio + nro_dni + apellido + nombre + fecha_nac + teléfono + dirección + fecha_ing</t>
+  </si>
+  <si>
+    <t>Copias = @cod_barra + @nro_copia + estado_copia</t>
+  </si>
+  <si>
+    <t>Peliculas = @cod_barra + titulo + fecha_ingreso + genero + idioma + argumento + apel_nom_dir + 1{apel_nom_actor + rol}n</t>
+  </si>
+  <si>
+    <t>Alquileres = @nro_socio + @fecha_alq + cant_dias + importe_total + 1{cod_barra + nro_copia + (fecha_devolucion)}n</t>
+  </si>
+  <si>
+    <t>SOCIOS</t>
+  </si>
+  <si>
+    <t>NRO_SOCIO</t>
+  </si>
+  <si>
+    <t>NRO_DNI</t>
+  </si>
+  <si>
+    <t>APELLIDO</t>
+  </si>
+  <si>
+    <t>NOMBRE</t>
+  </si>
+  <si>
+    <t>FECHA_NAC</t>
+  </si>
+  <si>
+    <t>TEL</t>
+  </si>
+  <si>
+    <t>DIRECC</t>
+  </si>
+  <si>
+    <t>FECHA_ING</t>
+  </si>
+  <si>
+    <t>COPIAS</t>
+  </si>
+  <si>
+    <t>COD_BARRA</t>
+  </si>
+  <si>
+    <t>NRO_COPIA</t>
+  </si>
+  <si>
+    <t>ESTADO</t>
+  </si>
+  <si>
+    <t>PELICULAS</t>
+  </si>
+  <si>
+    <t>ACTORES</t>
+  </si>
+  <si>
+    <t>APELNOM</t>
+  </si>
+  <si>
+    <t>ROL</t>
+  </si>
+  <si>
+    <t>TITULO</t>
+  </si>
+  <si>
+    <t>GENERO</t>
+  </si>
+  <si>
+    <t>IDIOMA</t>
+  </si>
+  <si>
+    <t>ARGUMENTO</t>
+  </si>
+  <si>
+    <t>DIRECTOR</t>
+  </si>
+  <si>
+    <t>APELNOM_ACTOR</t>
+  </si>
+  <si>
+    <t>ALQUILERES</t>
+  </si>
+  <si>
+    <t>FECHA_ALQ</t>
+  </si>
+  <si>
+    <t>CANT_DIAS</t>
+  </si>
+  <si>
+    <t>IMPORTE_TOTAL</t>
+  </si>
+  <si>
+    <t>FECHA_DEVOL</t>
+  </si>
+  <si>
+    <t>0.0                    1</t>
+  </si>
+  <si>
+    <t>1                            0.0</t>
+  </si>
+  <si>
+    <t>EJ4 MINI</t>
+  </si>
+  <si>
+    <t>)Localidades = @CodLoc + Localidad + CodPostal</t>
+  </si>
+  <si>
+    <t>Viajes = @Cod_viaje + FH_Salida + FH_Arribo + N_Colectivo + Legajo + CodLocOrigen + CodLocDestino + N_Plataforma + Precio</t>
+  </si>
+  <si>
+    <t>)Boletos = @Cod_viaje + @DNI + nro_asiento + apellido + nombre + (importe_reintegro) + estado</t>
+  </si>
+  <si>
+    <t>Colectivos= @interno + modelo + capacidad + patente + categoría + 1{nro_asiento + ubicacion}n</t>
+  </si>
+  <si>
+    <t>LOCALIDADES</t>
+  </si>
+  <si>
+    <t>CODLOC</t>
+  </si>
+  <si>
+    <t>CODPOSTAL</t>
+  </si>
+  <si>
+    <t>VIAJES</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>FH_SALIDA</t>
+  </si>
+  <si>
+    <t>FH_ARRIBO</t>
+  </si>
+  <si>
+    <t>NUMERO_COLECTIVO</t>
+  </si>
+  <si>
+    <t>LEGAJO</t>
+  </si>
+  <si>
+    <t>CODLOCORIGEN</t>
+  </si>
+  <si>
+    <t>N_PLATAFORMA</t>
+  </si>
+  <si>
+    <t>PRECIO</t>
+  </si>
+  <si>
+    <t>CODLOCDESTINO</t>
+  </si>
+  <si>
+    <t>BOLETOS</t>
+  </si>
+  <si>
+    <t>COD_VIAJE</t>
+  </si>
+  <si>
+    <t>DNI</t>
+  </si>
+  <si>
+    <t>NRO_ASIENTO</t>
+  </si>
+  <si>
+    <t>IMPORTE_REINTEGRO</t>
+  </si>
+  <si>
+    <t>COLECTIVOS</t>
+  </si>
+  <si>
+    <t>ASIENTOS</t>
+  </si>
+  <si>
+    <t>INTERNO</t>
+  </si>
+  <si>
+    <t>MODELO</t>
+  </si>
+  <si>
+    <t>CAPACIDAD</t>
+  </si>
+  <si>
+    <t>PATENTE</t>
+  </si>
+  <si>
+    <t>CAT</t>
+  </si>
+  <si>
+    <t>NRO</t>
+  </si>
+  <si>
+    <t>UBICACIÓN</t>
+  </si>
+  <si>
+    <t>0.0                             1</t>
+  </si>
+  <si>
+    <t>1                   1</t>
+  </si>
+  <si>
+    <t>COD_INTERNO</t>
+  </si>
+  <si>
+    <t>FACTURAS_PROD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -378,7 +599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -392,12 +613,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,6 +638,57 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Conector curvado 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3876675" y="21097875"/>
+          <a:ext cx="3581400" cy="1162050"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 80052"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -678,10 +954,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M70"/>
+  <dimension ref="A1:P119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="K73" sqref="K73"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,7 +1374,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>57</v>
       </c>
@@ -1115,7 +1391,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>58</v>
       </c>
@@ -1129,7 +1405,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F52">
         <v>1</v>
       </c>
@@ -1137,7 +1413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>32</v>
       </c>
@@ -1145,7 +1421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>1</v>
       </c>
@@ -1153,7 +1429,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>1</v>
       </c>
@@ -1161,12 +1437,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>74</v>
       </c>
@@ -1182,12 +1458,16 @@
       <c r="J59" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="L59" s="10" t="s">
+      <c r="L59" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="M59" s="10"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M59" s="9"/>
+      <c r="O59" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="P59" s="1"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B60" s="5" t="s">
         <v>87</v>
       </c>
@@ -1203,12 +1483,16 @@
       <c r="J60" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="L60" s="9" t="s">
+      <c r="L60" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="M60" s="9"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M60" s="10"/>
+      <c r="O60" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="P60" s="5"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B61" s="5" t="s">
         <v>83</v>
       </c>
@@ -1224,12 +1508,16 @@
       <c r="J61" t="s">
         <v>92</v>
       </c>
-      <c r="L61" s="9" t="s">
+      <c r="L61" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="M61" s="9"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M61" s="10"/>
+      <c r="O61" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="P61" s="5"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
         <v>81</v>
       </c>
@@ -1242,30 +1530,39 @@
       <c r="J62" t="s">
         <v>79</v>
       </c>
-      <c r="L62" s="9" t="s">
+      <c r="L62" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="M62" s="9"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M62" s="10"/>
+      <c r="O62" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
         <v>82</v>
       </c>
       <c r="F63" t="s">
         <v>86</v>
       </c>
-      <c r="H63" t="s">
-        <v>79</v>
-      </c>
       <c r="J63" t="s">
         <v>89</v>
       </c>
-      <c r="L63" s="8" t="s">
+      <c r="L63" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="M63" s="8"/>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M63" s="11"/>
+      <c r="O63" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L64" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M64" s="11"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F65">
         <v>1</v>
       </c>
@@ -1273,15 +1570,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D66">
-        <v>1</v>
-      </c>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J66" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="O66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>32</v>
       </c>
@@ -1289,7 +1586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>1</v>
       </c>
@@ -1297,24 +1594,369 @@
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D69" t="s">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="O69" t="s">
         <v>32</v>
       </c>
-      <c r="H69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H70">
-        <v>1</v>
-      </c>
-      <c r="J70">
-        <v>1</v>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>95</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="D71" s="12"/>
+      <c r="L71" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="L72" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B81" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B82" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E82" t="s">
+        <v>128</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>102</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F83" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>103</v>
+      </c>
+      <c r="D84" t="s">
+        <v>112</v>
+      </c>
+      <c r="F84" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>104</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F85" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>105</v>
+      </c>
+      <c r="D86" s="8">
+        <v>1</v>
+      </c>
+      <c r="F86" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>106</v>
+      </c>
+      <c r="C87" t="s">
+        <v>129</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F87" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>107</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F88" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>108</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F89" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B90" s="8"/>
+      <c r="D90" t="s">
+        <v>125</v>
+      </c>
+      <c r="F90" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B91" s="8"/>
+      <c r="D91" t="s">
+        <v>126</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>127</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>110</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>111</v>
+      </c>
+      <c r="F94" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B107" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B108" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C108" t="s">
+        <v>162</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E108" t="s">
+        <v>163</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>104</v>
+      </c>
+      <c r="D109" t="s">
+        <v>140</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="H109" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>137</v>
+      </c>
+      <c r="D110" t="s">
+        <v>141</v>
+      </c>
+      <c r="F110" t="s">
+        <v>151</v>
+      </c>
+      <c r="H110" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D111" t="s">
+        <v>142</v>
+      </c>
+      <c r="F111" t="s">
+        <v>103</v>
+      </c>
+      <c r="H111" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>143</v>
+      </c>
+      <c r="F112" t="s">
+        <v>104</v>
+      </c>
+      <c r="H112" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="113" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
+        <v>144</v>
+      </c>
+      <c r="F113" t="s">
+        <v>112</v>
+      </c>
+      <c r="H113" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="114" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
+        <v>147</v>
+      </c>
+      <c r="F114" t="s">
+        <v>152</v>
+      </c>
+      <c r="H114" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D115" t="s">
+        <v>145</v>
+      </c>
+      <c r="H115" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="116" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
+        <v>146</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="117" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H117" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="118" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H118" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="119" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H119" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="L64:M64"/>
     <mergeCell ref="L59:M59"/>
     <mergeCell ref="L60:M60"/>
     <mergeCell ref="L61:M61"/>
@@ -1322,5 +1964,7 @@
     <mergeCell ref="L63:M63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Normalizacion.xlsx
+++ b/Normalizacion.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="218">
   <si>
     <t xml:space="preserve">EJERCICIO 1 </t>
   </si>
@@ -517,6 +517,162 @@
   </si>
   <si>
     <t>FACTURAS_PROD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EJ5 MINI </t>
+  </si>
+  <si>
+    <t>INTERNACIONES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANIMALES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERVENCIONES </t>
+  </si>
+  <si>
+    <t>NRO_ID</t>
+  </si>
+  <si>
+    <t>FECHA_INTERNACION</t>
+  </si>
+  <si>
+    <t>DIAGNOSTICO</t>
+  </si>
+  <si>
+    <t>FECHA_ALTA</t>
+  </si>
+  <si>
+    <t>FECHA_FALLECE</t>
+  </si>
+  <si>
+    <t>OBSERVACION</t>
+  </si>
+  <si>
+    <t>NOMBRE_ANIMAL</t>
+  </si>
+  <si>
+    <t>ESPECIE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAZA </t>
+  </si>
+  <si>
+    <t>SEXO</t>
+  </si>
+  <si>
+    <t>APELLIDO_RES</t>
+  </si>
+  <si>
+    <t>NOMBRE_RESP</t>
+  </si>
+  <si>
+    <t>DOMICILIO</t>
+  </si>
+  <si>
+    <t>FH_INTERVENCION</t>
+  </si>
+  <si>
+    <t>TIPO_INTERVENCION</t>
+  </si>
+  <si>
+    <t>EVOLUCION</t>
+  </si>
+  <si>
+    <t>EJ6 MINI</t>
+  </si>
+  <si>
+    <t>ELEMENTOS</t>
+  </si>
+  <si>
+    <t>PRESTAMOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REVISIONES </t>
+  </si>
+  <si>
+    <t>EMPLEADOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOMBRE </t>
+  </si>
+  <si>
+    <t>FECHA_INGRESO</t>
+  </si>
+  <si>
+    <t>SECTOR</t>
+  </si>
+  <si>
+    <t>NRO_INV</t>
+  </si>
+  <si>
+    <t>FH_REVISION</t>
+  </si>
+  <si>
+    <t>SITUACION</t>
+  </si>
+  <si>
+    <t>OBS_REV</t>
+  </si>
+  <si>
+    <t>LEGAJO_SOL</t>
+  </si>
+  <si>
+    <t>FH_PRES</t>
+  </si>
+  <si>
+    <t>LEGAJO_ENTREGA</t>
+  </si>
+  <si>
+    <t>PERSONAS</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>N                                1</t>
+  </si>
+  <si>
+    <t>TIPO</t>
+  </si>
+  <si>
+    <t>MARCA</t>
+  </si>
+  <si>
+    <t>MEDIDA</t>
+  </si>
+  <si>
+    <t>ESPECIFICACIONES</t>
+  </si>
+  <si>
+    <t>FECHA_AD</t>
+  </si>
+  <si>
+    <t>COD_PROV</t>
+  </si>
+  <si>
+    <t>LUGAR_USO</t>
+  </si>
+  <si>
+    <t>FH_ESTIMADA_DEV</t>
+  </si>
+  <si>
+    <t>FH_DEV</t>
+  </si>
+  <si>
+    <t>ESTADO_DEV</t>
+  </si>
+  <si>
+    <t>OBS_DEV</t>
+  </si>
+  <si>
+    <t>N                                  1</t>
+  </si>
+  <si>
+    <t>N                                   1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N                                   </t>
   </si>
 </sst>
 </file>
@@ -599,7 +755,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -613,6 +769,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -620,9 +783,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -669,6 +840,314 @@
           <a:avLst>
             <a:gd name="adj1" fmla="val 80052"/>
           </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Conector recto 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1485900" y="24755475"/>
+          <a:ext cx="76200" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Conector recto 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2276475" y="23155275"/>
+          <a:ext cx="809625" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Conector recto 18"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4695825" y="23326725"/>
+          <a:ext cx="847725" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Conector recto 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952500" y="30422850"/>
+          <a:ext cx="2085975" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1038225</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Conector recto 30"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4695825" y="28298775"/>
+          <a:ext cx="857250" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Conector recto 32"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2209800" y="28336875"/>
+          <a:ext cx="876300" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>133352</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1047750</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Conector recto 36"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4714875" y="28517852"/>
+          <a:ext cx="847725" cy="323848"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
@@ -954,23 +1433,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P119"/>
+  <dimension ref="A1:P167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="J151" sqref="J151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
     <col min="6" max="6" width="21.42578125" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
     <col min="13" max="13" width="12.140625" customWidth="1"/>
@@ -1458,10 +1937,10 @@
       <c r="J59" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="L59" s="9" t="s">
+      <c r="L59" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="M59" s="9"/>
+      <c r="M59" s="12"/>
       <c r="O59" s="1" t="s">
         <v>165</v>
       </c>
@@ -1483,10 +1962,10 @@
       <c r="J60" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="L60" s="10" t="s">
+      <c r="L60" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="M60" s="10"/>
+      <c r="M60" s="13"/>
       <c r="O60" s="5" t="s">
         <v>89</v>
       </c>
@@ -1508,10 +1987,10 @@
       <c r="J61" t="s">
         <v>92</v>
       </c>
-      <c r="L61" s="10" t="s">
+      <c r="L61" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="M61" s="10"/>
+      <c r="M61" s="13"/>
       <c r="O61" s="5" t="s">
         <v>94</v>
       </c>
@@ -1530,10 +2009,10 @@
       <c r="J62" t="s">
         <v>79</v>
       </c>
-      <c r="L62" s="10" t="s">
+      <c r="L62" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="M62" s="10"/>
+      <c r="M62" s="13"/>
       <c r="O62" t="s">
         <v>88</v>
       </c>
@@ -1612,7 +2091,7 @@
       <c r="B71">
         <v>1</v>
       </c>
-      <c r="D71" s="12"/>
+      <c r="D71" s="10"/>
       <c r="L71" t="s">
         <v>32</v>
       </c>
@@ -1901,7 +2380,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="113" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D113" t="s">
         <v>144</v>
       </c>
@@ -1912,7 +2391,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="114" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D114" t="s">
         <v>147</v>
       </c>
@@ -1923,7 +2402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D115" t="s">
         <v>145</v>
       </c>
@@ -1931,7 +2410,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="116" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D116" t="s">
         <v>146</v>
       </c>
@@ -1939,19 +2418,344 @@
         <v>154</v>
       </c>
     </row>
-    <row r="117" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H117" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="118" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H118" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="119" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H119" t="s">
         <v>164</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B122" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C122" t="s">
+        <v>203</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B123" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E123" t="s">
+        <v>215</v>
+      </c>
+      <c r="F123" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B124" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D124" t="s">
+        <v>176</v>
+      </c>
+      <c r="F124" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>172</v>
+      </c>
+      <c r="D125" t="s">
+        <v>177</v>
+      </c>
+      <c r="F125" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>173</v>
+      </c>
+      <c r="D126" t="s">
+        <v>178</v>
+      </c>
+      <c r="F126" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>174</v>
+      </c>
+      <c r="D127" t="s">
+        <v>179</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>175</v>
+      </c>
+      <c r="D128" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>112</v>
+      </c>
+      <c r="D129" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B130" s="9">
+        <v>1</v>
+      </c>
+      <c r="D130" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B131" s="9"/>
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B132" s="9"/>
+    </row>
+    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B133" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B134" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B135" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B136" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B137" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F142" s="17"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B148" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B149" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C149" s="15">
+        <v>1</v>
+      </c>
+      <c r="D149" t="s">
+        <v>198</v>
+      </c>
+      <c r="E149" t="s">
+        <v>216</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>204</v>
+      </c>
+      <c r="C150" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+      <c r="F150" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
+        <v>205</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="F151" t="s">
+        <v>103</v>
+      </c>
+      <c r="J151" s="10"/>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>156</v>
+      </c>
+      <c r="D152" t="s">
+        <v>200</v>
+      </c>
+      <c r="E152" t="s">
+        <v>217</v>
+      </c>
+      <c r="F152" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>206</v>
+      </c>
+      <c r="D153" t="s">
+        <v>92</v>
+      </c>
+      <c r="F153" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
+        <v>207</v>
+      </c>
+      <c r="D154" t="s">
+        <v>210</v>
+      </c>
+      <c r="F154" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
+        <v>208</v>
+      </c>
+      <c r="D155" t="s">
+        <v>211</v>
+      </c>
+      <c r="F155" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
+        <v>209</v>
+      </c>
+      <c r="D156" t="s">
+        <v>212</v>
+      </c>
+      <c r="F156" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>81</v>
+      </c>
+      <c r="D157" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>161</v>
+      </c>
+      <c r="D158" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>112</v>
+      </c>
+      <c r="G159" s="17"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B160" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C163" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="164" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D164" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="165" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D165" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="166" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D166" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="167" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D167" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/Normalizacion.xlsx
+++ b/Normalizacion.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="221">
   <si>
     <t xml:space="preserve">EJERCICIO 1 </t>
   </si>
@@ -507,12 +507,6 @@
     <t>UBICACIÓN</t>
   </si>
   <si>
-    <t>0.0                             1</t>
-  </si>
-  <si>
-    <t>1                   1</t>
-  </si>
-  <si>
     <t>COD_INTERNO</t>
   </si>
   <si>
@@ -673,6 +667,21 @@
   </si>
   <si>
     <t xml:space="preserve">N                                   </t>
+  </si>
+  <si>
+    <t>1                             N</t>
+  </si>
+  <si>
+    <t>1                                   N</t>
+  </si>
+  <si>
+    <t>dni</t>
+  </si>
+  <si>
+    <t>apellido</t>
+  </si>
+  <si>
+    <t>nombre</t>
   </si>
 </sst>
 </file>
@@ -755,7 +764,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -776,12 +785,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -793,6 +796,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -815,61 +827,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1000125</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>971550</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Conector curvado 6"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3876675" y="21097875"/>
-          <a:ext cx="3581400" cy="1162050"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 80052"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -907,13 +873,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1000125</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -951,13 +917,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1028700</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1435,8 +1401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="J151" sqref="J151"/>
+    <sheetView tabSelected="1" topLeftCell="D100" workbookViewId="0">
+      <selection activeCell="H110" sqref="H110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1937,12 +1903,12 @@
       <c r="J59" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="L59" s="12" t="s">
+      <c r="L59" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="M59" s="12"/>
+      <c r="M59" s="17"/>
       <c r="O59" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P59" s="1"/>
     </row>
@@ -1962,10 +1928,10 @@
       <c r="J60" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="L60" s="13" t="s">
+      <c r="L60" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="M60" s="13"/>
+      <c r="M60" s="18"/>
       <c r="O60" s="5" t="s">
         <v>89</v>
       </c>
@@ -1987,10 +1953,10 @@
       <c r="J61" t="s">
         <v>92</v>
       </c>
-      <c r="L61" s="13" t="s">
+      <c r="L61" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="M61" s="13"/>
+      <c r="M61" s="18"/>
       <c r="O61" s="5" t="s">
         <v>94</v>
       </c>
@@ -2009,10 +1975,10 @@
       <c r="J62" t="s">
         <v>79</v>
       </c>
-      <c r="L62" s="13" t="s">
+      <c r="L62" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="M62" s="13"/>
+      <c r="M62" s="18"/>
       <c r="O62" t="s">
         <v>88</v>
       </c>
@@ -2027,19 +1993,19 @@
       <c r="J63" t="s">
         <v>89</v>
       </c>
-      <c r="L63" s="11" t="s">
+      <c r="L63" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="M63" s="11"/>
+      <c r="M63" s="16"/>
       <c r="O63" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L64" s="11" t="s">
+      <c r="L64" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="M64" s="11"/>
+      <c r="M64" s="16"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F65">
@@ -2276,27 +2242,27 @@
         <v>130</v>
       </c>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
         <v>135</v>
       </c>
@@ -2306,45 +2272,54 @@
       <c r="F107" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="H107" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I107" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" s="5" t="s">
         <v>136</v>
       </c>
       <c r="C108" t="s">
-        <v>162</v>
+        <v>216</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>139</v>
       </c>
       <c r="E108" t="s">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="H108" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G108" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="H108" s="11">
+        <v>1</v>
+      </c>
+      <c r="I108" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>104</v>
       </c>
+      <c r="C109" t="s">
+        <v>216</v>
+      </c>
       <c r="D109" t="s">
         <v>140</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="H109" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I109" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>137</v>
       </c>
@@ -2354,30 +2329,24 @@
       <c r="F110" t="s">
         <v>151</v>
       </c>
-      <c r="H110" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I110" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D111" t="s">
         <v>142</v>
       </c>
       <c r="F111" t="s">
         <v>103</v>
       </c>
-      <c r="H111" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D112" t="s">
         <v>143</v>
       </c>
       <c r="F112" t="s">
         <v>104</v>
-      </c>
-      <c r="H112" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -2387,9 +2356,6 @@
       <c r="F113" t="s">
         <v>112</v>
       </c>
-      <c r="H113" t="s">
-        <v>151</v>
-      </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D114" t="s">
@@ -2398,17 +2364,11 @@
       <c r="F114" t="s">
         <v>152</v>
       </c>
-      <c r="H114" s="8">
-        <v>1</v>
-      </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D115" t="s">
         <v>145</v>
       </c>
-      <c r="H115" s="8" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D116" t="s">
@@ -2419,198 +2379,236 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D117" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F117" s="8">
+        <v>1</v>
+      </c>
+      <c r="G117" s="8" t="s">
+        <v>200</v>
+      </c>
       <c r="H117" s="5" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D118" s="11">
+        <v>1</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>155</v>
+      </c>
       <c r="H118" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E119" t="s">
+        <v>156</v>
+      </c>
       <c r="H119" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E120" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E121" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E122" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E123" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B125" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C125" t="s">
+        <v>201</v>
+      </c>
+      <c r="D125" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B122" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C122" t="s">
-        <v>203</v>
-      </c>
-      <c r="D122" s="1" t="s">
+      <c r="F125" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B126" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="F122" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B123" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="E123" t="s">
-        <v>215</v>
-      </c>
-      <c r="F123" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B124" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D124" t="s">
-        <v>176</v>
-      </c>
-      <c r="F124" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B125" t="s">
-        <v>172</v>
-      </c>
-      <c r="D125" t="s">
-        <v>177</v>
-      </c>
-      <c r="F125" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B126" t="s">
-        <v>173</v>
-      </c>
-      <c r="D126" t="s">
+      <c r="D126" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E126" t="s">
+        <v>213</v>
+      </c>
+      <c r="F126" t="s">
         <v>178</v>
       </c>
-      <c r="F126" t="s">
-        <v>106</v>
-      </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B127" t="s">
+      <c r="B127" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D127" t="s">
         <v>174</v>
       </c>
-      <c r="D127" t="s">
+      <c r="F127" t="s">
         <v>179</v>
-      </c>
-      <c r="F127" s="5" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
+        <v>170</v>
+      </c>
+      <c r="D128" t="s">
         <v>175</v>
       </c>
-      <c r="D128" t="s">
-        <v>105</v>
+      <c r="F128" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
+        <v>171</v>
+      </c>
+      <c r="D129" t="s">
+        <v>176</v>
+      </c>
+      <c r="F129" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>172</v>
+      </c>
+      <c r="D130" t="s">
+        <v>177</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>173</v>
+      </c>
+      <c r="D131" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
         <v>112</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D132" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B130" s="9">
-        <v>1</v>
-      </c>
-      <c r="D130" t="s">
+    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B133" s="9">
+        <v>1</v>
+      </c>
+      <c r="D133" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B131" s="9"/>
-    </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B132" s="9"/>
-    </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B133" s="9" t="s">
-        <v>202</v>
-      </c>
-    </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B134" s="1" t="s">
+      <c r="B134" s="9"/>
+    </row>
+    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B135" s="9"/>
+    </row>
+    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B136" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B137" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B138" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B139" s="5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B135" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B136" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B137" s="5" t="s">
+    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B140" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B138" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B139" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B140" t="s">
+    <row r="143" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F142" s="17"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B148" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D148" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F148" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B149" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C149" s="15">
+        <v>192</v>
+      </c>
+      <c r="C149" s="13">
         <v>1</v>
       </c>
       <c r="D149" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E149" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F149" s="5" t="s">
         <v>143</v>
@@ -2618,13 +2616,13 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>204</v>
-      </c>
-      <c r="C150" s="14" t="s">
         <v>202</v>
       </c>
+      <c r="C150" s="12" t="s">
+        <v>200</v>
+      </c>
       <c r="D150" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -2635,10 +2633,10 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F151" t="s">
         <v>103</v>
@@ -2650,54 +2648,54 @@
         <v>156</v>
       </c>
       <c r="D152" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E152" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F152" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D153" t="s">
         <v>92</v>
       </c>
       <c r="F153" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D154" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F154" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D155" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F155" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D156" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F156" t="s">
         <v>105</v>
@@ -2708,7 +2706,7 @@
         <v>81</v>
       </c>
       <c r="D157" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
@@ -2716,46 +2714,46 @@
         <v>161</v>
       </c>
       <c r="D158" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>112</v>
       </c>
-      <c r="G159" s="17"/>
+      <c r="G159" s="15"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B160" s="16">
+      <c r="B160" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="163" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C163" s="14" t="s">
-        <v>202</v>
+      <c r="C163" s="12" t="s">
+        <v>200</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="164" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D164" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="165" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D165" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="166" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D166" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="167" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D167" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/Normalizacion.xlsx
+++ b/Normalizacion.xlsx
@@ -1401,8 +1401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D100" workbookViewId="0">
-      <selection activeCell="H110" sqref="H110"/>
+    <sheetView tabSelected="1" topLeftCell="D103" workbookViewId="0">
+      <selection activeCell="M115" sqref="M115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2410,7 +2410,7 @@
       <c r="E119" t="s">
         <v>156</v>
       </c>
-      <c r="H119" t="s">
+      <c r="H119" s="5" t="s">
         <v>162</v>
       </c>
     </row>
